--- a/csv/svm/svm_pc25_sigmoid.xlsx
+++ b/csv/svm/svm_pc25_sigmoid.xlsx
@@ -7,16 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Best Par.1" r:id="rId3" sheetId="1"/>
-    <sheet name="Best Perf.1" r:id="rId4" sheetId="2"/>
-    <sheet name="Perf.2" r:id="rId5" sheetId="3"/>
-    <sheet name="Best Par.2" r:id="rId6" sheetId="4"/>
-    <sheet name="Best Perf.2" r:id="rId7" sheetId="5"/>
+    <sheet name="Sel. Par.1" r:id="rId4" sheetId="2"/>
+    <sheet name="Best Perf.1" r:id="rId5" sheetId="3"/>
+    <sheet name="Perf.2" r:id="rId6" sheetId="4"/>
+    <sheet name="Sel. Par.2" r:id="rId7" sheetId="5"/>
+    <sheet name="Best Par.2" r:id="rId8" sheetId="6"/>
+    <sheet name="Best Perf.2" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>cost</t>
   </si>
@@ -24,7 +26,7 @@
     <t>gamma</t>
   </si>
   <si>
-    <t>52</t>
+    <t>6</t>
   </si>
   <si>
     <t>x</t>
@@ -49,9 +51,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>7</t>
@@ -131,10 +130,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.2</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007142857142857143</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -153,6 +152,39 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -161,15 +193,15 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1487012987012987</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>0.17034632034632033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -197,10 +229,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.567965367965368</v>
+        <v>0.2541125541125541</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15273405130244377</v>
+        <v>0.07030986586425501</v>
       </c>
     </row>
     <row r="3">
@@ -211,10 +243,10 @@
         <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.38722943722943726</v>
+        <v>0.18571428571428572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13456887883932597</v>
+        <v>0.07702708722870416</v>
       </c>
     </row>
     <row r="4">
@@ -225,10 +257,10 @@
         <v>0.7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.28095238095238095</v>
+        <v>0.16255411255411256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10928676006854585</v>
+        <v>0.07715977128192937</v>
       </c>
     </row>
     <row r="5">
@@ -239,10 +271,10 @@
         <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19350649350649352</v>
+        <v>0.17683982683982685</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08470307847779697</v>
+        <v>0.08610409077707333</v>
       </c>
     </row>
     <row r="6">
@@ -253,102 +285,129 @@
         <v>0.9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20735930735930735</v>
+        <v>0.17207792207792208</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07705411522603714</v>
+        <v>0.08944426722641804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1893939393939394</v>
+        <v>0.16277056277056276</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07641268320714481</v>
+        <v>0.08390405070002527</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>1.1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18484848484848485</v>
+        <v>0.16753246753246753</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06822818460552571</v>
+        <v>0.0809445353771894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>1.2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16623376623376623</v>
+        <v>0.18636363636363637</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07255872725684029</v>
+        <v>0.09302855829605049</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>1.3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.15714285714285714</v>
+        <v>0.18636363636363637</v>
       </c>
       <c r="D10" t="n">
-        <v>0.061688944580434814</v>
+        <v>0.09302855829605049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>1.4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1616883116883117</v>
+        <v>0.19545454545454544</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0652792705036373</v>
+        <v>0.09203617728661045</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>1.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.17987012987012987</v>
+        <v>0.1906926406926407</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06517871556383016</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>0.09354194943558135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -370,18 +429,18 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.2</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007142857142857143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -400,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1487012987012987</v>
+        <v>0.17034632034632033</v>
       </c>
     </row>
   </sheetData>

--- a/csv/svm/svm_pc25_sigmoid.xlsx
+++ b/csv/svm/svm_pc25_sigmoid.xlsx
@@ -26,31 +26,31 @@
     <t>gamma</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>dispersion</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>dispersion</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>7</t>
@@ -130,7 +130,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="n">
         <v>0.01</v>
@@ -163,7 +163,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="n">
         <v>0.01</v>
@@ -193,7 +193,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.17034632034632033</v>
+        <v>0.15281385281385282</v>
       </c>
     </row>
   </sheetData>
@@ -229,10 +229,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2541125541125541</v>
+        <v>0.19350649350649352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07030986586425501</v>
+        <v>0.08084801116103772</v>
       </c>
     </row>
     <row r="3">
@@ -243,10 +243,10 @@
         <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18571428571428572</v>
+        <v>0.166017316017316</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07702708722870416</v>
+        <v>0.07698821785890651</v>
       </c>
     </row>
     <row r="4">
@@ -257,52 +257,52 @@
         <v>0.7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.16255411255411256</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07715977128192937</v>
+        <v>0.05635285530641217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.17683982683982685</v>
+        <v>0.1471861471861472</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08610409077707333</v>
+        <v>0.08951262579665699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>0.9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.17207792207792208</v>
+        <v>0.14264069264069265</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08944426722641804</v>
+        <v>0.08057228274849858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16277056277056276</v>
+        <v>0.15692640692640691</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08390405070002527</v>
+        <v>0.07427078102738191</v>
       </c>
     </row>
     <row r="8">
@@ -313,10 +313,10 @@
         <v>1.1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16753246753246753</v>
+        <v>0.17077922077922078</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0809445353771894</v>
+        <v>0.09033148693601753</v>
       </c>
     </row>
     <row r="9">
@@ -327,10 +327,10 @@
         <v>1.2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.18636363636363637</v>
+        <v>0.1800865800865801</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09302855829605049</v>
+        <v>0.08049697896580196</v>
       </c>
     </row>
     <row r="10">
@@ -341,10 +341,10 @@
         <v>1.3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.18636363636363637</v>
+        <v>0.18463203463203465</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09302855829605049</v>
+        <v>0.07606308220092163</v>
       </c>
     </row>
     <row r="11">
@@ -355,10 +355,10 @@
         <v>1.4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.19545454545454544</v>
+        <v>0.17056277056277058</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09203617728661045</v>
+        <v>0.07667485627414825</v>
       </c>
     </row>
     <row r="12">
@@ -369,10 +369,10 @@
         <v>1.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1906926406926407</v>
+        <v>0.17056277056277058</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09354194943558135</v>
+        <v>0.07667485627414825</v>
       </c>
     </row>
   </sheetData>
@@ -396,10 +396,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="n">
         <v>0.01</v>
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.17034632034632033</v>
+        <v>0.15281385281385282</v>
       </c>
     </row>
   </sheetData>
